--- a/实施周数据-李登林组/1月/3周/实施周数据-李登林组-王骞.xlsx
+++ b/实施周数据-李登林组/1月/3周/实施周数据-李登林组-王骞.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -2138,9 +2138,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -2183,13 +2183,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2205,31 +2228,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2256,6 +2263,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2277,53 +2321,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2407,7 +2407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2467,31 +2467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,13 +2509,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2908,56 +2908,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -2981,6 +2931,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2995,11 +2969,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3012,7 +3012,7 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3030,85 +3030,85 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3120,42 +3120,42 @@
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
@@ -3735,8 +3735,8 @@
   <sheetPr/>
   <dimension ref="A1:Q191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -10385,7 +10385,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" ht="14.25" spans="1:14">
       <c r="A173" s="58"/>
       <c r="B173" s="59"/>
       <c r="C173" s="60" t="s">
@@ -10524,7 +10524,7 @@
       <c r="D176" s="49"/>
       <c r="E176" s="50"/>
       <c r="F176" s="50">
-        <f t="shared" ref="F176:F182" si="182">D176-E176</f>
+        <f t="shared" ref="F176:F183" si="182">D176-E176</f>
         <v>0</v>
       </c>
       <c r="G176" s="51"/>
@@ -10695,7 +10695,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" ht="14.25" spans="1:14">
       <c r="A181" s="46"/>
       <c r="B181" s="47"/>
       <c r="C181" s="52" t="s">
@@ -10793,7 +10793,7 @@
       <c r="D183" s="43"/>
       <c r="E183" s="44"/>
       <c r="F183" s="44">
-        <f>D183-E183</f>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="G183" s="45"/>
@@ -10808,7 +10808,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L183" s="73">
-        <f>D183+H183</f>
+        <f t="shared" ref="L183:L190" si="185">D183+H183</f>
         <v>0</v>
       </c>
       <c r="M183" s="74">
@@ -10816,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="N183" s="75" t="e">
-        <f t="shared" ref="N183:N191" si="185">M183/L183*100%</f>
+        <f t="shared" ref="N183:N191" si="186">M183/L183*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10853,15 +10853,15 @@
         <v>0.902439024390244</v>
       </c>
       <c r="L184" s="73">
-        <f>D184+H184</f>
+        <f t="shared" si="185"/>
         <v>38</v>
       </c>
       <c r="M184" s="74">
-        <f>E184+J184</f>
+        <f t="shared" ref="M184:M190" si="187">E184+J184</f>
         <v>41</v>
       </c>
       <c r="N184" s="75">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>1.07894736842105</v>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
       <c r="D185" s="49"/>
       <c r="E185" s="50"/>
       <c r="F185" s="50">
-        <f>D185-E185</f>
+        <f t="shared" ref="F185:F192" si="188">D185-E185</f>
         <v>0</v>
       </c>
       <c r="G185" s="51"/>
@@ -10889,15 +10889,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L185" s="73">
-        <f>D185+H185</f>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="M185" s="74">
-        <f>E185+J185</f>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="N185" s="75" t="e">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10910,7 +10910,7 @@
       <c r="D186" s="49"/>
       <c r="E186" s="50"/>
       <c r="F186" s="50">
-        <f>D186-E186</f>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="G186" s="51"/>
@@ -10925,15 +10925,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L186" s="73">
-        <f>D186+H186</f>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="M186" s="74">
-        <f>E186+J186</f>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="N186" s="75" t="e">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10946,7 +10946,7 @@
       <c r="D187" s="49"/>
       <c r="E187" s="50"/>
       <c r="F187" s="50">
-        <f>D187-E187</f>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="G187" s="51"/>
@@ -10961,15 +10961,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L187" s="73">
-        <f>D187+H187</f>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="M187" s="74">
-        <f>E187+J187</f>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="N187" s="75" t="e">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
       <c r="D188" s="49"/>
       <c r="E188" s="50"/>
       <c r="F188" s="50">
-        <f>D188-E188</f>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="G188" s="51"/>
@@ -10997,15 +10997,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L188" s="73">
-        <f>D188+H188</f>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="M188" s="74">
-        <f>E188+J188</f>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="N188" s="75" t="e">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11018,7 +11018,7 @@
       <c r="D189" s="49"/>
       <c r="E189" s="50"/>
       <c r="F189" s="50">
-        <f>D189-E189</f>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="G189" s="51"/>
@@ -11033,15 +11033,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L189" s="73">
-        <f>D189+H189</f>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="M189" s="74">
-        <f>E189+J189</f>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="N189" s="75" t="e">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       <c r="D190" s="53"/>
       <c r="E190" s="54"/>
       <c r="F190" s="55">
-        <f>D190-E190</f>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="G190" s="56"/>
@@ -11069,19 +11069,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L190" s="79">
-        <f>D190+H190</f>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="M190" s="80">
-        <f>E190+J190</f>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="N190" s="81" t="e">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="191" ht="14.25" spans="1:14">
+    <row r="191" spans="1:14">
       <c r="A191" s="58"/>
       <c r="B191" s="59"/>
       <c r="C191" s="60" t="s">
@@ -11096,7 +11096,7 @@
         <v>4</v>
       </c>
       <c r="F191" s="62">
-        <f>D191-E191</f>
+        <f t="shared" si="188"/>
         <v>-3</v>
       </c>
       <c r="G191" s="61">
@@ -11128,7 +11128,7 @@
         <v>41</v>
       </c>
       <c r="N191" s="83">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>1.07894736842105</v>
       </c>
     </row>
@@ -11189,7 +11189,7 @@
   <dimension ref="A1:Q755"/>
   <sheetViews>
     <sheetView topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="F509" sqref="F509"/>
+      <selection activeCell="D510" sqref="D510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -34438,17 +34438,32 @@
         <v>692</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
-      <c r="A505" s="12"/>
+    <row r="505" s="5" customFormat="1" spans="1:15">
+      <c r="A505" s="28"/>
       <c r="B505" s="27"/>
-    </row>
-    <row r="506" spans="1:2">
+      <c r="C505" s="7"/>
+      <c r="D505" s="7"/>
+      <c r="E505" s="7"/>
+      <c r="F505" s="7"/>
+      <c r="G505" s="7"/>
+      <c r="H505" s="7"/>
+      <c r="I505" s="30"/>
+      <c r="J505" s="7"/>
+      <c r="K505" s="7"/>
+      <c r="L505" s="7"/>
+      <c r="M505" s="7"/>
+      <c r="N505" s="7"/>
+      <c r="O505" s="7"/>
+    </row>
+    <row r="506" spans="1:3">
       <c r="A506" s="31"/>
       <c r="B506" s="27"/>
-    </row>
-    <row r="507" spans="1:2">
-      <c r="A507" s="12"/>
+      <c r="C506" s="14"/>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="31"/>
       <c r="B507" s="27"/>
+      <c r="C507" s="25"/>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="31"/>
@@ -35313,10 +35328,10 @@
     <mergeCell ref="B399:B410"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C411 C413 C415 C417 C419 C421 C423 C425 C427 C430 C432 C434 C436 C438 C440 C442 C444 C446 C448 C450 C452 C454 C456 C458 C460 C462 C463 C465 C466 C468 C469 C471 C472 C474 C475 C477 C478 C480 C481 C483 C484 C486 C487 C489 C490 C492 C494 C496 C498 C500 C502 C504 C1:C275 C505:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C411 C413 C415 C417 C419 C421 C423 C425 C427 C430 C432 C434 C436 C438 C440 C442 C444 C446 C448 C450 C452 C454 C456 C458 C460 C462 C463 C465 C466 C468 C469 C471 C472 C474 C475 C477 C478 C480 C481 C483 C484 C486 C487 C489 C490 C492 C494 C496 C498 C500 C502 C504 C505 C506 C1:C275 C508:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D412 D413 D414 D415 D416 D417 D418 D419 D420 D421 D422 D423 D424 D425 D426 D427 D428 D429 D430 D431 D432 D433 D434 D435 D436 D437 D438 D439 D440 D441 D442 D443 D444 D445 D446 D447 D448 D449 D450 D451 D452 D453 D454 D455 D456 D457 D458 D459 D460 D461 D462 D463 D464 D465 D466 D467 D468 D469 D470 D471 D472 D473 D474 D475 D476 D477 D478 D479 D480 D481 D482 D483 D484 D485 D486 D487 D488 D489 D490 D491 D492 D493 D494 D495 D496 D497 D498 D499 D500 D501 D1:D411 D502:D503 D504:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D412 D413 D414 D415 D416 D417 D418 D419 D420 D421 D422 D423 D424 D425 D426 D427 D428 D429 D430 D431 D432 D433 D434 D435 D436 D437 D438 D439 D440 D441 D442 D443 D444 D445 D446 D447 D448 D449 D450 D451 D452 D453 D454 D455 D456 D457 D458 D459 D460 D461 D462 D463 D464 D465 D466 D467 D468 D469 D470 D471 D472 D473 D474 D475 D476 D477 D478 D479 D480 D481 D482 D483 D484 D485 D486 D487 D488 D489 D490 D491 D492 D493 D494 D495 D496 D497 D498 D499 D500 D501 D506 D507 D1:D411 D502:D503 D504:D505 D508:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35331,7 +35346,7 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
